--- a/NMC-lang.xlsx
+++ b/NMC-lang.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humam\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humam\source\repos\nmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF2040A-1358-43F9-8DC4-8881FFE18561}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02E4763-7B8B-408E-8A68-AEB8452CBDF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{06631A8B-C2B5-4CC8-9CEF-AEB3391B159A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="495">
   <si>
     <t>Id</t>
   </si>
@@ -1378,6 +1378,144 @@
   </si>
   <si>
     <t>؟</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>حفظ</t>
+  </si>
+  <si>
+    <t>Edit Admission</t>
+  </si>
+  <si>
+    <t>Edit Department</t>
+  </si>
+  <si>
+    <t>Edit Employee</t>
+  </si>
+  <si>
+    <t>Edit Employee Type</t>
+  </si>
+  <si>
+    <t>Edit Patient</t>
+  </si>
+  <si>
+    <t>Edit Doctor</t>
+  </si>
+  <si>
+    <t>Edit Room Type</t>
+  </si>
+  <si>
+    <t>Edit Room Grade</t>
+  </si>
+  <si>
+    <t>Edit Room</t>
+  </si>
+  <si>
+    <t>Edit Expense</t>
+  </si>
+  <si>
+    <t>Edit Invoice</t>
+  </si>
+  <si>
+    <t>Edit Appointment</t>
+  </si>
+  <si>
+    <t>Edit Education</t>
+  </si>
+  <si>
+    <t>Edit Experience</t>
+  </si>
+  <si>
+    <t>Edit Reservation</t>
+  </si>
+  <si>
+    <t>Edit User</t>
+  </si>
+  <si>
+    <t>Edit Role</t>
+  </si>
+  <si>
+    <t>تعديل ملف قبول</t>
+  </si>
+  <si>
+    <t>تعديل قسم</t>
+  </si>
+  <si>
+    <t>تعديل موظف</t>
+  </si>
+  <si>
+    <t>تعديل نوع وظيفة</t>
+  </si>
+  <si>
+    <t>تعديل مريض</t>
+  </si>
+  <si>
+    <t>تعديل طبيب</t>
+  </si>
+  <si>
+    <t>تعديل نوع غرفة</t>
+  </si>
+  <si>
+    <t>تعديل درجة غرفة</t>
+  </si>
+  <si>
+    <t>تعديل غرفة</t>
+  </si>
+  <si>
+    <t>تعديل مصروف</t>
+  </si>
+  <si>
+    <t>تعديل فاتورة</t>
+  </si>
+  <si>
+    <t>تعديل موعد</t>
+  </si>
+  <si>
+    <t>تعديل شهادة</t>
+  </si>
+  <si>
+    <t>تعديل خبرة</t>
+  </si>
+  <si>
+    <t>تعديل حجز</t>
+  </si>
+  <si>
+    <t>تعديل مستخدم</t>
+  </si>
+  <si>
+    <t>تعديل دور وظيفي</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>غير نشط</t>
+  </si>
+  <si>
+    <t>نعم</t>
+  </si>
+  <si>
+    <t>لا</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>كلمة المرور</t>
+  </si>
+  <si>
+    <t>كلمة المرور للتأكد</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>غير متاح</t>
   </si>
 </sst>
 </file>
@@ -1413,8 +1551,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1729,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E4CD8-DC49-4C55-8515-46DB0D464638}">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C226"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4460,7 +4599,7 @@
         <v>418</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C226" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
+        <f t="shared" ref="C195:C254" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
         <v xml:space="preserve">msgid "Leaves"
 msgstr "الإجازات"
 </v>
@@ -4897,6 +5036,404 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">msgid "?"
 msgstr "؟"
+</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>449</v>
+      </c>
+      <c r="B227" t="s">
+        <v>450</v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Save"
+msgstr "حفظ"
+</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>451</v>
+      </c>
+      <c r="B228" t="s">
+        <v>468</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Admission"
+msgstr "تعديل ملف قبول"
+</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>452</v>
+      </c>
+      <c r="B229" t="s">
+        <v>469</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Department"
+msgstr "تعديل قسم"
+</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>453</v>
+      </c>
+      <c r="B230" t="s">
+        <v>470</v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Employee"
+msgstr "تعديل موظف"
+</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>454</v>
+      </c>
+      <c r="B231" t="s">
+        <v>471</v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Employee Type"
+msgstr "تعديل نوع وظيفة"
+</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>455</v>
+      </c>
+      <c r="B232" t="s">
+        <v>472</v>
+      </c>
+      <c r="C232" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Patient"
+msgstr "تعديل مريض"
+</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>456</v>
+      </c>
+      <c r="B233" t="s">
+        <v>473</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Doctor"
+msgstr "تعديل طبيب"
+</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>457</v>
+      </c>
+      <c r="B234" t="s">
+        <v>474</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Room Type"
+msgstr "تعديل نوع غرفة"
+</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>458</v>
+      </c>
+      <c r="B235" t="s">
+        <v>475</v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Room Grade"
+msgstr "تعديل درجة غرفة"
+</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>459</v>
+      </c>
+      <c r="B236" t="s">
+        <v>476</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Room"
+msgstr "تعديل غرفة"
+</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>460</v>
+      </c>
+      <c r="B237" t="s">
+        <v>477</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Expense"
+msgstr "تعديل مصروف"
+</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>461</v>
+      </c>
+      <c r="B238" t="s">
+        <v>478</v>
+      </c>
+      <c r="C238" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Invoice"
+msgstr "تعديل فاتورة"
+</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>462</v>
+      </c>
+      <c r="B239" t="s">
+        <v>479</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Appointment"
+msgstr "تعديل موعد"
+</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>463</v>
+      </c>
+      <c r="B240" t="s">
+        <v>480</v>
+      </c>
+      <c r="C240" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Education"
+msgstr "تعديل شهادة"
+</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>464</v>
+      </c>
+      <c r="B241" t="s">
+        <v>481</v>
+      </c>
+      <c r="C241" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Experience"
+msgstr "تعديل خبرة"
+</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>465</v>
+      </c>
+      <c r="B242" t="s">
+        <v>482</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Reservation"
+msgstr "تعديل حجز"
+</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>466</v>
+      </c>
+      <c r="B243" t="s">
+        <v>483</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit User"
+msgstr "تعديل مستخدم"
+</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>467</v>
+      </c>
+      <c r="B244" t="s">
+        <v>484</v>
+      </c>
+      <c r="C244" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Role"
+msgstr "تعديل دور وظيفي"
+</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>485</v>
+      </c>
+      <c r="B245" t="s">
+        <v>486</v>
+      </c>
+      <c r="C245" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Inactive"
+msgstr "غير نشط"
+</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="str">
+        <f>"True"</f>
+        <v>True</v>
+      </c>
+      <c r="B246" t="s">
+        <v>487</v>
+      </c>
+      <c r="C246" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "True"
+msgstr "نعم"
+</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="str">
+        <f>"False"</f>
+        <v>False</v>
+      </c>
+      <c r="B247" t="s">
+        <v>488</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "False"
+msgstr "لا"
+</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
+      <c r="B248" t="s">
+        <v>487</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "true"
+msgstr "نعم"
+</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="B249" t="s">
+        <v>488</v>
+      </c>
+      <c r="C249" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "false"
+msgstr "لا"
+</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="str">
+        <f>"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="B250" t="s">
+        <v>487</v>
+      </c>
+      <c r="C250" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Yes"
+msgstr "نعم"
+</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
+        <f>"No"</f>
+        <v>No</v>
+      </c>
+      <c r="B251" t="s">
+        <v>488</v>
+      </c>
+      <c r="C251" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "No"
+msgstr "لا"
+</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>489</v>
+      </c>
+      <c r="B252" t="s">
+        <v>491</v>
+      </c>
+      <c r="C252" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Password"
+msgstr "كلمة المرور"
+</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>490</v>
+      </c>
+      <c r="B253" t="s">
+        <v>492</v>
+      </c>
+      <c r="C253" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Confirm Password"
+msgstr "كلمة المرور للتأكد"
+</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>493</v>
+      </c>
+      <c r="B254" t="s">
+        <v>494</v>
+      </c>
+      <c r="C254" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Not Available"
+msgstr "غير متاح"
 </v>
       </c>
     </row>

--- a/NMC-lang.xlsx
+++ b/NMC-lang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humam\source\repos\nmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02E4763-7B8B-408E-8A68-AEB8452CBDF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92ACCFB-D0A4-4B01-BC5B-06B6F3AD2720}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{06631A8B-C2B5-4CC8-9CEF-AEB3391B159A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="499">
   <si>
     <t>Id</t>
   </si>
@@ -1516,6 +1516,18 @@
   </si>
   <si>
     <t>غير متاح</t>
+  </si>
+  <si>
+    <t>Appointment Time</t>
+  </si>
+  <si>
+    <t>توقيت الموعد</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>د.</t>
   </si>
 </sst>
 </file>
@@ -1868,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E4CD8-DC49-4C55-8515-46DB0D464638}">
-  <dimension ref="A1:C254"/>
+  <dimension ref="A1:C256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+      <selection activeCell="C256" sqref="C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4599,7 +4611,7 @@
         <v>418</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C254" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
+        <f t="shared" ref="C195:C256" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
         <v xml:space="preserve">msgid "Leaves"
 msgstr "الإجازات"
 </v>
@@ -5434,6 +5446,34 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">msgid "Not Available"
 msgstr "غير متاح"
+</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>495</v>
+      </c>
+      <c r="B255" t="s">
+        <v>496</v>
+      </c>
+      <c r="C255" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Appointment Time"
+msgstr "توقيت الموعد"
+</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>497</v>
+      </c>
+      <c r="B256" t="s">
+        <v>498</v>
+      </c>
+      <c r="C256" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Dr."
+msgstr "د."
 </v>
       </c>
     </row>

--- a/NMC-lang.xlsx
+++ b/NMC-lang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humam\source\repos\nmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92ACCFB-D0A4-4B01-BC5B-06B6F3AD2720}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3550F25A-C467-46AE-8F49-690EB0275434}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{06631A8B-C2B5-4CC8-9CEF-AEB3391B159A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="517">
   <si>
     <t>Id</t>
   </si>
@@ -1528,6 +1528,60 @@
   </si>
   <si>
     <t>د.</t>
+  </si>
+  <si>
+    <t>Available Days</t>
+  </si>
+  <si>
+    <t>الأيام المتاحة</t>
+  </si>
+  <si>
+    <t>Select Days</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>اختر الأيام</t>
+  </si>
+  <si>
+    <t>الأحد</t>
+  </si>
+  <si>
+    <t>الاثنين</t>
+  </si>
+  <si>
+    <t>الثلاثاء</t>
+  </si>
+  <si>
+    <t>الأربعاء</t>
+  </si>
+  <si>
+    <t>الخميس</t>
+  </si>
+  <si>
+    <t>الجمعة</t>
+  </si>
+  <si>
+    <t>السبت</t>
   </si>
 </sst>
 </file>
@@ -1880,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E4CD8-DC49-4C55-8515-46DB0D464638}">
-  <dimension ref="A1:C256"/>
+  <dimension ref="A1:C265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C256" sqref="C256"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257:C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4611,7 +4665,7 @@
         <v>418</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C256" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
+        <f t="shared" ref="C195:C265" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
         <v xml:space="preserve">msgid "Leaves"
 msgstr "الإجازات"
 </v>
@@ -5474,6 +5528,132 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">msgid "Dr."
 msgstr "د."
+</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>499</v>
+      </c>
+      <c r="B257" t="s">
+        <v>500</v>
+      </c>
+      <c r="C257" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Available Days"
+msgstr "الأيام المتاحة"
+</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>501</v>
+      </c>
+      <c r="B258" t="s">
+        <v>509</v>
+      </c>
+      <c r="C258" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Select Days"
+msgstr "اختر الأيام"
+</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>502</v>
+      </c>
+      <c r="B259" t="s">
+        <v>510</v>
+      </c>
+      <c r="C259" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Sunday"
+msgstr "الأحد"
+</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>503</v>
+      </c>
+      <c r="B260" t="s">
+        <v>511</v>
+      </c>
+      <c r="C260" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Monday"
+msgstr "الاثنين"
+</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>504</v>
+      </c>
+      <c r="B261" t="s">
+        <v>512</v>
+      </c>
+      <c r="C261" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Tuesday"
+msgstr "الثلاثاء"
+</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>505</v>
+      </c>
+      <c r="B262" t="s">
+        <v>513</v>
+      </c>
+      <c r="C262" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Wednesday"
+msgstr "الأربعاء"
+</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>506</v>
+      </c>
+      <c r="B263" t="s">
+        <v>514</v>
+      </c>
+      <c r="C263" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Thursday"
+msgstr "الخميس"
+</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>507</v>
+      </c>
+      <c r="B264" t="s">
+        <v>515</v>
+      </c>
+      <c r="C264" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Friday"
+msgstr "الجمعة"
+</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>508</v>
+      </c>
+      <c r="B265" t="s">
+        <v>516</v>
+      </c>
+      <c r="C265" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Saturday"
+msgstr "السبت"
 </v>
       </c>
     </row>

--- a/NMC-lang.xlsx
+++ b/NMC-lang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humam\source\repos\nmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3550F25A-C467-46AE-8F49-690EB0275434}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFF083D-C929-4982-81B8-7A5A09C9DD4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{06631A8B-C2B5-4CC8-9CEF-AEB3391B159A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="525">
   <si>
     <t>Id</t>
   </si>
@@ -1582,6 +1582,30 @@
   </si>
   <si>
     <t>السبت</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>الملف الشخصي</t>
+  </si>
+  <si>
+    <t>ملفي الشخصي</t>
+  </si>
+  <si>
+    <t>تعديل ملفي الشخصي</t>
+  </si>
+  <si>
+    <t>Doctor Details</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Patient Details</t>
+  </si>
+  <si>
+    <t>Admission Details</t>
   </si>
 </sst>
 </file>
@@ -1934,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E4CD8-DC49-4C55-8515-46DB0D464638}">
-  <dimension ref="A1:C265"/>
+  <dimension ref="A1:C273"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="C257" sqref="C257:C265"/>
+      <selection activeCell="A273" sqref="A273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4665,7 +4689,7 @@
         <v>418</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C265" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
+        <f t="shared" ref="C195:C268" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
         <v xml:space="preserve">msgid "Leaves"
 msgstr "الإجازات"
 </v>
@@ -5655,6 +5679,68 @@
         <v xml:space="preserve">msgid "Saturday"
 msgstr "السبت"
 </v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>517</v>
+      </c>
+      <c r="B266" t="s">
+        <v>518</v>
+      </c>
+      <c r="C266" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Profile"
+msgstr "الملف الشخصي"
+</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>358</v>
+      </c>
+      <c r="B267" t="s">
+        <v>519</v>
+      </c>
+      <c r="C267" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "My Profile"
+msgstr "ملفي الشخصي"
+</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>359</v>
+      </c>
+      <c r="B268" t="s">
+        <v>520</v>
+      </c>
+      <c r="C268" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Profile"
+msgstr "تعديل ملفي الشخصي"
+</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/NMC-lang.xlsx
+++ b/NMC-lang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humam\source\repos\nmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFF083D-C929-4982-81B8-7A5A09C9DD4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035C2A5A-37EC-4CF9-9ACD-E59F1E054CA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{06631A8B-C2B5-4CC8-9CEF-AEB3391B159A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="545">
   <si>
     <t>Id</t>
   </si>
@@ -912,9 +912,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>حالات القبول</t>
-  </si>
-  <si>
     <t>أنواع القبول</t>
   </si>
   <si>
@@ -1606,6 +1603,69 @@
   </si>
   <si>
     <t>Admission Details</t>
+  </si>
+  <si>
+    <t>General Information</t>
+  </si>
+  <si>
+    <t>Education Informations</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Make Appointment</t>
+  </si>
+  <si>
+    <t>ملفات القبول</t>
+  </si>
+  <si>
+    <t>بيانات الطبيب</t>
+  </si>
+  <si>
+    <t>بيان تفصيلي</t>
+  </si>
+  <si>
+    <t>بيانات المريض</t>
+  </si>
+  <si>
+    <t>بيانات ملف القبول</t>
+  </si>
+  <si>
+    <t>معلومات عامة</t>
+  </si>
+  <si>
+    <t>الشهادات التعليمية</t>
+  </si>
+  <si>
+    <t>الخبرة</t>
+  </si>
+  <si>
+    <t>اليوم الحالي</t>
+  </si>
+  <si>
+    <t>حجز موعد</t>
+  </si>
+  <si>
+    <t>Current Admission</t>
+  </si>
+  <si>
+    <t>Medical History</t>
+  </si>
+  <si>
+    <t>Allergy</t>
+  </si>
+  <si>
+    <t>القبول الحالي</t>
+  </si>
+  <si>
+    <t>التاريخ المرضي</t>
+  </si>
+  <si>
+    <t>الحساسية</t>
   </si>
 </sst>
 </file>
@@ -1958,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E4CD8-DC49-4C55-8515-46DB0D464638}">
-  <dimension ref="A1:C273"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="A273" sqref="A273"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3832,12 +3892,12 @@
         <v>266</v>
       </c>
       <c r="B134" t="s">
-        <v>293</v>
+        <v>529</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">msgid "Admissions"
-msgstr "حالات القبول"
+msgstr "ملفات القبول"
 </v>
       </c>
     </row>
@@ -3846,7 +3906,7 @@
         <v>267</v>
       </c>
       <c r="B135" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="2"/>
@@ -3860,7 +3920,7 @@
         <v>268</v>
       </c>
       <c r="B136" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="2"/>
@@ -3874,7 +3934,7 @@
         <v>269</v>
       </c>
       <c r="B137" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="2"/>
@@ -3888,7 +3948,7 @@
         <v>270</v>
       </c>
       <c r="B138" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="2"/>
@@ -3902,7 +3962,7 @@
         <v>271</v>
       </c>
       <c r="B139" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="2"/>
@@ -3916,7 +3976,7 @@
         <v>272</v>
       </c>
       <c r="B140" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="2"/>
@@ -3930,7 +3990,7 @@
         <v>273</v>
       </c>
       <c r="B141" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="2"/>
@@ -3944,7 +4004,7 @@
         <v>274</v>
       </c>
       <c r="B142" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="2"/>
@@ -3958,7 +4018,7 @@
         <v>275</v>
       </c>
       <c r="B143" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="2"/>
@@ -3972,7 +4032,7 @@
         <v>276</v>
       </c>
       <c r="B144" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="2"/>
@@ -3986,7 +4046,7 @@
         <v>277</v>
       </c>
       <c r="B145" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="2"/>
@@ -4000,7 +4060,7 @@
         <v>278</v>
       </c>
       <c r="B146" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="2"/>
@@ -4014,7 +4074,7 @@
         <v>279</v>
       </c>
       <c r="B147" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="2"/>
@@ -4028,7 +4088,7 @@
         <v>280</v>
       </c>
       <c r="B148" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="2"/>
@@ -4042,7 +4102,7 @@
         <v>281</v>
       </c>
       <c r="B149" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="2"/>
@@ -4056,7 +4116,7 @@
         <v>282</v>
       </c>
       <c r="B150" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="2"/>
@@ -4070,7 +4130,7 @@
         <v>283</v>
       </c>
       <c r="B151" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="2"/>
@@ -4084,7 +4144,7 @@
         <v>284</v>
       </c>
       <c r="B152" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="2"/>
@@ -4098,7 +4158,7 @@
         <v>285</v>
       </c>
       <c r="B153" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="2"/>
@@ -4112,7 +4172,7 @@
         <v>286</v>
       </c>
       <c r="B154" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="2"/>
@@ -4126,7 +4186,7 @@
         <v>287</v>
       </c>
       <c r="B155" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="2"/>
@@ -4140,7 +4200,7 @@
         <v>288</v>
       </c>
       <c r="B156" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="2"/>
@@ -4154,7 +4214,7 @@
         <v>289</v>
       </c>
       <c r="B157" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="2"/>
@@ -4168,7 +4228,7 @@
         <v>290</v>
       </c>
       <c r="B158" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="2"/>
@@ -4182,7 +4242,7 @@
         <v>291</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="2"/>
@@ -4196,7 +4256,7 @@
         <v>292</v>
       </c>
       <c r="B160" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="2"/>
@@ -4207,10 +4267,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>334</v>
+      </c>
+      <c r="B161" t="s">
         <v>335</v>
-      </c>
-      <c r="B161" t="s">
-        <v>336</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="2"/>
@@ -4221,10 +4281,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B162" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="2"/>
@@ -4235,10 +4295,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B163" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="2"/>
@@ -4249,10 +4309,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B164" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="2"/>
@@ -4263,10 +4323,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B165" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="2"/>
@@ -4277,10 +4337,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B166" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="2"/>
@@ -4291,10 +4351,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B167" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="2"/>
@@ -4305,10 +4365,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B168" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="2"/>
@@ -4319,10 +4379,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B169" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="2"/>
@@ -4333,10 +4393,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B170" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="2"/>
@@ -4347,10 +4407,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B171" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="2"/>
@@ -4361,10 +4421,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B172" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="2"/>
@@ -4375,10 +4435,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B173" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="2"/>
@@ -4389,10 +4449,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B174" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="2"/>
@@ -4403,10 +4463,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B175" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="2"/>
@@ -4417,10 +4477,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B176" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="2"/>
@@ -4431,10 +4491,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B177" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="2"/>
@@ -4445,10 +4505,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B178" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="2"/>
@@ -4459,10 +4519,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B179" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="2"/>
@@ -4473,10 +4533,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B180" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="2"/>
@@ -4487,10 +4547,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B181" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="2"/>
@@ -4501,10 +4561,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B182" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="2"/>
@@ -4515,10 +4575,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B183" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="2"/>
@@ -4529,10 +4589,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B184" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="2"/>
@@ -4543,10 +4603,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B185" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="2"/>
@@ -4557,10 +4617,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B186" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="2"/>
@@ -4571,10 +4631,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B187" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="2"/>
@@ -4585,10 +4645,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B188" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="2"/>
@@ -4599,10 +4659,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B189" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="2"/>
@@ -4613,10 +4673,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B190" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="2"/>
@@ -4627,10 +4687,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B191" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="2"/>
@@ -4641,10 +4701,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B192" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="2"/>
@@ -4655,10 +4715,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B193" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="2"/>
@@ -4669,10 +4729,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B194" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C194" t="str">
         <f t="shared" si="2"/>
@@ -4683,13 +4743,13 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B195" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C268" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
+        <f t="shared" ref="C195:C280" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
         <v xml:space="preserve">msgid "Leaves"
 msgstr "الإجازات"
 </v>
@@ -4697,10 +4757,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B196" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" si="3"/>
@@ -4714,7 +4774,7 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="3"/>
@@ -4725,10 +4785,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B198" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="3"/>
@@ -4739,10 +4799,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B199" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="3"/>
@@ -4753,10 +4813,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B200" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" si="3"/>
@@ -4767,10 +4827,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B201" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="3"/>
@@ -4781,10 +4841,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B202" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" si="3"/>
@@ -4795,10 +4855,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B203" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C203" t="str">
         <f t="shared" si="3"/>
@@ -4809,10 +4869,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B204" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" si="3"/>
@@ -4823,10 +4883,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B205" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="3"/>
@@ -4837,10 +4897,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B206" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="3"/>
@@ -4851,10 +4911,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B207" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="3"/>
@@ -4865,10 +4925,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B208" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="3"/>
@@ -4879,10 +4939,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B209" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="3"/>
@@ -4893,10 +4953,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B210" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="3"/>
@@ -4907,10 +4967,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B211" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="3"/>
@@ -4921,10 +4981,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B212" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="3"/>
@@ -4935,10 +4995,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B213" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="3"/>
@@ -4949,10 +5009,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B214" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="3"/>
@@ -4963,10 +5023,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B215" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C215" t="str">
         <f t="shared" si="3"/>
@@ -4977,10 +5037,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B216" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="3"/>
@@ -4991,10 +5051,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B217" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="3"/>
@@ -5005,10 +5065,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B218" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="3"/>
@@ -5019,10 +5079,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B219" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="3"/>
@@ -5033,10 +5093,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B220" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="3"/>
@@ -5047,10 +5107,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B221" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="3"/>
@@ -5061,10 +5121,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B222" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="3"/>
@@ -5075,10 +5135,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B223" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="3"/>
@@ -5089,10 +5149,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B224" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="3"/>
@@ -5103,10 +5163,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B225" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="3"/>
@@ -5117,10 +5177,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>446</v>
+      </c>
+      <c r="B226" t="s">
         <v>447</v>
-      </c>
-      <c r="B226" t="s">
-        <v>448</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="3"/>
@@ -5131,10 +5191,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>448</v>
+      </c>
+      <c r="B227" t="s">
         <v>449</v>
-      </c>
-      <c r="B227" t="s">
-        <v>450</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="3"/>
@@ -5145,10 +5205,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B228" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="3"/>
@@ -5159,10 +5219,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B229" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="3"/>
@@ -5173,10 +5233,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B230" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="3"/>
@@ -5187,10 +5247,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B231" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="3"/>
@@ -5201,10 +5261,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B232" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="3"/>
@@ -5215,10 +5275,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B233" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="3"/>
@@ -5229,10 +5289,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B234" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="3"/>
@@ -5243,10 +5303,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B235" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="3"/>
@@ -5257,10 +5317,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B236" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="3"/>
@@ -5271,10 +5331,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B237" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="3"/>
@@ -5285,10 +5345,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B238" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C238" t="str">
         <f t="shared" si="3"/>
@@ -5299,10 +5359,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B239" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C239" t="str">
         <f t="shared" si="3"/>
@@ -5313,10 +5373,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B240" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C240" t="str">
         <f t="shared" si="3"/>
@@ -5327,10 +5387,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B241" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="3"/>
@@ -5341,10 +5401,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B242" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C242" t="str">
         <f t="shared" si="3"/>
@@ -5355,10 +5415,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B243" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C243" t="str">
         <f t="shared" si="3"/>
@@ -5369,10 +5429,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B244" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C244" t="str">
         <f t="shared" si="3"/>
@@ -5383,10 +5443,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>484</v>
+      </c>
+      <c r="B245" t="s">
         <v>485</v>
-      </c>
-      <c r="B245" t="s">
-        <v>486</v>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="3"/>
@@ -5401,7 +5461,7 @@
         <v>True</v>
       </c>
       <c r="B246" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="3"/>
@@ -5416,7 +5476,7 @@
         <v>False</v>
       </c>
       <c r="B247" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C247" t="str">
         <f t="shared" si="3"/>
@@ -5431,7 +5491,7 @@
         <v>true</v>
       </c>
       <c r="B248" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="3"/>
@@ -5446,7 +5506,7 @@
         <v>false</v>
       </c>
       <c r="B249" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C249" t="str">
         <f t="shared" si="3"/>
@@ -5461,7 +5521,7 @@
         <v>Yes</v>
       </c>
       <c r="B250" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="3"/>
@@ -5476,7 +5536,7 @@
         <v>No</v>
       </c>
       <c r="B251" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="3"/>
@@ -5487,10 +5547,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B252" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="3"/>
@@ -5501,10 +5561,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B253" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="3"/>
@@ -5515,10 +5575,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>492</v>
+      </c>
+      <c r="B254" t="s">
         <v>493</v>
-      </c>
-      <c r="B254" t="s">
-        <v>494</v>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="3"/>
@@ -5529,10 +5589,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>494</v>
+      </c>
+      <c r="B255" t="s">
         <v>495</v>
-      </c>
-      <c r="B255" t="s">
-        <v>496</v>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="3"/>
@@ -5543,10 +5603,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>496</v>
+      </c>
+      <c r="B256" t="s">
         <v>497</v>
-      </c>
-      <c r="B256" t="s">
-        <v>498</v>
       </c>
       <c r="C256" t="str">
         <f t="shared" si="3"/>
@@ -5557,10 +5617,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>498</v>
+      </c>
+      <c r="B257" t="s">
         <v>499</v>
-      </c>
-      <c r="B257" t="s">
-        <v>500</v>
       </c>
       <c r="C257" t="str">
         <f t="shared" si="3"/>
@@ -5571,10 +5631,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B258" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C258" t="str">
         <f t="shared" si="3"/>
@@ -5585,10 +5645,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B259" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C259" t="str">
         <f t="shared" si="3"/>
@@ -5599,10 +5659,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B260" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C260" t="str">
         <f t="shared" si="3"/>
@@ -5613,10 +5673,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B261" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C261" t="str">
         <f t="shared" si="3"/>
@@ -5627,10 +5687,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B262" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C262" t="str">
         <f t="shared" si="3"/>
@@ -5641,10 +5701,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B263" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="3"/>
@@ -5655,10 +5715,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B264" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C264" t="str">
         <f t="shared" si="3"/>
@@ -5669,10 +5729,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B265" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C265" t="str">
         <f t="shared" si="3"/>
@@ -5683,10 +5743,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>516</v>
+      </c>
+      <c r="B266" t="s">
         <v>517</v>
-      </c>
-      <c r="B266" t="s">
-        <v>518</v>
       </c>
       <c r="C266" t="str">
         <f t="shared" si="3"/>
@@ -5697,10 +5757,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B267" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C267" t="str">
         <f t="shared" si="3"/>
@@ -5711,15 +5771,29 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B268" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C268" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">msgid "Edit Profile"
 msgstr "تعديل ملفي الشخصي"
+</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>520</v>
+      </c>
+      <c r="B269" t="s">
+        <v>530</v>
+      </c>
+      <c r="C269" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Doctor Details"
+msgstr "بيانات الطبيب"
 </v>
       </c>
     </row>
@@ -5727,20 +5801,154 @@
       <c r="A270" t="s">
         <v>521</v>
       </c>
+      <c r="B270" t="s">
+        <v>531</v>
+      </c>
+      <c r="C270" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Details"
+msgstr "بيان تفصيلي"
+</v>
+      </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>522</v>
       </c>
+      <c r="B271" t="s">
+        <v>532</v>
+      </c>
+      <c r="C271" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Patient Details"
+msgstr "بيانات المريض"
+</v>
+      </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>533</v>
+      </c>
+      <c r="C272" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Admission Details"
+msgstr "بيانات ملف القبول"
+</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>524</v>
+      </c>
+      <c r="B273" t="s">
+        <v>534</v>
+      </c>
+      <c r="C273" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "General Information"
+msgstr "معلومات عامة"
+</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>525</v>
+      </c>
+      <c r="B274" t="s">
+        <v>535</v>
+      </c>
+      <c r="C274" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Education Informations"
+msgstr "الشهادات التعليمية"
+</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>526</v>
+      </c>
+      <c r="B275" t="s">
+        <v>536</v>
+      </c>
+      <c r="C275" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Experience"
+msgstr "الخبرة"
+</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>527</v>
+      </c>
+      <c r="B276" t="s">
+        <v>537</v>
+      </c>
+      <c r="C276" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Present"
+msgstr "اليوم الحالي"
+</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>528</v>
+      </c>
+      <c r="B277" t="s">
+        <v>538</v>
+      </c>
+      <c r="C277" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Make Appointment"
+msgstr "حجز موعد"
+</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>539</v>
+      </c>
+      <c r="B278" t="s">
+        <v>542</v>
+      </c>
+      <c r="C278" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Current Admission"
+msgstr "القبول الحالي"
+</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>540</v>
+      </c>
+      <c r="B279" t="s">
+        <v>543</v>
+      </c>
+      <c r="C279" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Medical History"
+msgstr "التاريخ المرضي"
+</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>541</v>
+      </c>
+      <c r="B280" t="s">
+        <v>544</v>
+      </c>
+      <c r="C280" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Allergy"
+msgstr "الحساسية"
+</v>
       </c>
     </row>
   </sheetData>

--- a/NMC-lang.xlsx
+++ b/NMC-lang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humam\source\repos\nmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035C2A5A-37EC-4CF9-9ACD-E59F1E054CA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159808A-9C8E-445E-8A3F-AE62CC22AE14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{06631A8B-C2B5-4CC8-9CEF-AEB3391B159A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="549">
   <si>
     <t>Id</t>
   </si>
@@ -1666,6 +1666,18 @@
   </si>
   <si>
     <t>الحساسية</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>انجليزية</t>
+  </si>
+  <si>
+    <t>عربية</t>
   </si>
 </sst>
 </file>
@@ -2018,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E4CD8-DC49-4C55-8515-46DB0D464638}">
-  <dimension ref="A1:C280"/>
+  <dimension ref="A1:C282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="C281" sqref="C281:C282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4749,7 +4761,7 @@
         <v>417</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C280" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
+        <f t="shared" ref="C195:C282" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
         <v xml:space="preserve">msgid "Leaves"
 msgstr "الإجازات"
 </v>
@@ -5948,6 +5960,34 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">msgid "Allergy"
 msgstr "الحساسية"
+</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>545</v>
+      </c>
+      <c r="B281" t="s">
+        <v>548</v>
+      </c>
+      <c r="C281" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Arabic"
+msgstr "عربية"
+</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>546</v>
+      </c>
+      <c r="B282" t="s">
+        <v>547</v>
+      </c>
+      <c r="C282" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "English"
+msgstr "انجليزية"
 </v>
       </c>
     </row>

--- a/NMC-lang.xlsx
+++ b/NMC-lang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humam\source\repos\nmc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humam\source\nmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159808A-9C8E-445E-8A3F-AE62CC22AE14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA78191A-C337-4685-BD13-BA8AECB8EF1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{06631A8B-C2B5-4CC8-9CEF-AEB3391B159A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06631A8B-C2B5-4CC8-9CEF-AEB3391B159A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="561">
   <si>
     <t>Id</t>
   </si>
@@ -1678,6 +1681,42 @@
   </si>
   <si>
     <t>عربية</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Wards</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Laboratories</t>
+  </si>
+  <si>
+    <t>Labs</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>أجنحة طبية</t>
+  </si>
+  <si>
+    <t>جناح طبي</t>
+  </si>
+  <si>
+    <t>مخبر</t>
+  </si>
+  <si>
+    <t>مخابر</t>
+  </si>
+  <si>
+    <t>إدارة</t>
   </si>
 </sst>
 </file>
@@ -2030,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E4CD8-DC49-4C55-8515-46DB0D464638}">
-  <dimension ref="A1:C282"/>
+  <dimension ref="A1:C289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281:C282"/>
+      <selection activeCell="C283" sqref="C283:C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,7 +4800,7 @@
         <v>417</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C282" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
+        <f t="shared" ref="C195:C289" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
         <v xml:space="preserve">msgid "Leaves"
 msgstr "الإجازات"
 </v>
@@ -5988,6 +6027,104 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">msgid "English"
 msgstr "انجليزية"
+</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>549</v>
+      </c>
+      <c r="B283" t="s">
+        <v>557</v>
+      </c>
+      <c r="C283" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Ward"
+msgstr "جناح طبي"
+</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>550</v>
+      </c>
+      <c r="B284" t="s">
+        <v>556</v>
+      </c>
+      <c r="C284" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Wards"
+msgstr "أجنحة طبية"
+</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>551</v>
+      </c>
+      <c r="B285" t="s">
+        <v>558</v>
+      </c>
+      <c r="C285" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Laboratory"
+msgstr "مخبر"
+</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>552</v>
+      </c>
+      <c r="B286" t="s">
+        <v>558</v>
+      </c>
+      <c r="C286" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Lab"
+msgstr "مخبر"
+</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>553</v>
+      </c>
+      <c r="B287" t="s">
+        <v>559</v>
+      </c>
+      <c r="C287" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Laboratories"
+msgstr "مخابر"
+</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>554</v>
+      </c>
+      <c r="B288" t="s">
+        <v>559</v>
+      </c>
+      <c r="C288" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Labs"
+msgstr "مخابر"
+</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>555</v>
+      </c>
+      <c r="B289" t="s">
+        <v>560</v>
+      </c>
+      <c r="C289" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Administration"
+msgstr "إدارة"
 </v>
       </c>
     </row>

--- a/NMC-lang.xlsx
+++ b/NMC-lang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humam\source\repos\nmc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humam\source\nmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159808A-9C8E-445E-8A3F-AE62CC22AE14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663649F2-B7CE-4C58-A03A-A0D98D4E7342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{06631A8B-C2B5-4CC8-9CEF-AEB3391B159A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06631A8B-C2B5-4CC8-9CEF-AEB3391B159A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="550">
   <si>
     <t>Id</t>
   </si>
@@ -1678,6 +1681,9 @@
   </si>
   <si>
     <t>عربية</t>
+  </si>
+  <si>
+    <t>Home</t>
   </si>
 </sst>
 </file>
@@ -2030,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E4CD8-DC49-4C55-8515-46DB0D464638}">
-  <dimension ref="A1:C282"/>
+  <dimension ref="A1:C283"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281:C282"/>
+      <selection activeCell="B284" sqref="B284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,7 +4767,7 @@
         <v>417</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C282" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
+        <f t="shared" ref="C195:C283" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
         <v xml:space="preserve">msgid "Leaves"
 msgstr "الإجازات"
 </v>
@@ -5988,6 +5994,20 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">msgid "English"
 msgstr "انجليزية"
+</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>549</v>
+      </c>
+      <c r="B283" t="s">
+        <v>426</v>
+      </c>
+      <c r="C283" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Home"
+msgstr "الصفحة الرئيسية"
 </v>
       </c>
     </row>

--- a/NMC-lang.xlsx
+++ b/NMC-lang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humam\source\repos\nmc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humam\source\nmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159808A-9C8E-445E-8A3F-AE62CC22AE14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF57207-75E1-4A6D-AA7A-6A0783F8E920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{06631A8B-C2B5-4CC8-9CEF-AEB3391B159A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06631A8B-C2B5-4CC8-9CEF-AEB3391B159A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="767">
   <si>
     <t>Id</t>
   </si>
@@ -1678,6 +1681,660 @@
   </si>
   <si>
     <t>عربية</t>
+  </si>
+  <si>
+    <t>Inpatient</t>
+  </si>
+  <si>
+    <t>Outpatient</t>
+  </si>
+  <si>
+    <t>Inpatients</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Unit Type</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Specialities</t>
+  </si>
+  <si>
+    <t>Speciality (English)</t>
+  </si>
+  <si>
+    <t>Speciality (Arabic)</t>
+  </si>
+  <si>
+    <t>Create Speciality</t>
+  </si>
+  <si>
+    <t>Edit Speciality</t>
+  </si>
+  <si>
+    <t>Booking Reason Types</t>
+  </si>
+  <si>
+    <t>Booking Reason Type</t>
+  </si>
+  <si>
+    <t>Create Booking Reason Type</t>
+  </si>
+  <si>
+    <t>Edit Booking Reason Type</t>
+  </si>
+  <si>
+    <t>Reason Type (English)</t>
+  </si>
+  <si>
+    <t>Reason Type (Arabic)</t>
+  </si>
+  <si>
+    <t>Room Chart</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Create Unit</t>
+  </si>
+  <si>
+    <t>Edit Unit</t>
+  </si>
+  <si>
+    <t>Unit Name (English)</t>
+  </si>
+  <si>
+    <t>Unit Name (Arabic)</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
+  </si>
+  <si>
+    <t>Test Laboratory</t>
+  </si>
+  <si>
+    <t>Radiology Laboratory</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Identity No.</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>ID. Type</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Save To Inpatient</t>
+  </si>
+  <si>
+    <t>Create Patient</t>
+  </si>
+  <si>
+    <t>Create Inpatient</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Create Doctor</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Create User</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Create Doctor Schedule</t>
+  </si>
+  <si>
+    <t>Edit Doctor Schedule</t>
+  </si>
+  <si>
+    <t>Doctor Education</t>
+  </si>
+  <si>
+    <t>Create Doctor Education</t>
+  </si>
+  <si>
+    <t>Edit Doctor Education</t>
+  </si>
+  <si>
+    <t>Starting Year</t>
+  </si>
+  <si>
+    <t>Completion Year</t>
+  </si>
+  <si>
+    <t>Doctor Experience</t>
+  </si>
+  <si>
+    <t>From Year</t>
+  </si>
+  <si>
+    <t>To Year</t>
+  </si>
+  <si>
+    <t>Create Doctor Experience</t>
+  </si>
+  <si>
+    <t>Edit Doctor Experience</t>
+  </si>
+  <si>
+    <t>Experience Details</t>
+  </si>
+  <si>
+    <t>Schedule Details</t>
+  </si>
+  <si>
+    <t>Bookings</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Create Booking</t>
+  </si>
+  <si>
+    <t>Edit Booking</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Patient First Name</t>
+  </si>
+  <si>
+    <t>Patient Last Name</t>
+  </si>
+  <si>
+    <t>Reason Details</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Confirmed On</t>
+  </si>
+  <si>
+    <t>Closed On</t>
+  </si>
+  <si>
+    <t>Cancelled On</t>
+  </si>
+  <si>
+    <t>Has Payment Requirements</t>
+  </si>
+  <si>
+    <t>Payment Requirements</t>
+  </si>
+  <si>
+    <t>Has Test Requirements</t>
+  </si>
+  <si>
+    <t>Test Requirements</t>
+  </si>
+  <si>
+    <t>Has Radiology Requirements</t>
+  </si>
+  <si>
+    <t>Radiology Requirements</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Save And Book Rooms</t>
+  </si>
+  <si>
+    <t>Edit Inpatient</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>Residence</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Admit</t>
+  </si>
+  <si>
+    <t>Est. Days</t>
+  </si>
+  <si>
+    <t>Est. Discharge Date</t>
+  </si>
+  <si>
+    <t>Police Ref.</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
+    <t>Accident</t>
+  </si>
+  <si>
+    <t>Inpatient Menu</t>
+  </si>
+  <si>
+    <t>Edit Patient Info</t>
+  </si>
+  <si>
+    <t>Edit Details</t>
+  </si>
+  <si>
+    <t>Bills</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Back to Home</t>
+  </si>
+  <si>
+    <t>Not Discharged</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>Ill</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Admitted</t>
+  </si>
+  <si>
+    <t>Discharged</t>
+  </si>
+  <si>
+    <t>Rederved</t>
+  </si>
+  <si>
+    <t>Booking Rooms</t>
+  </si>
+  <si>
+    <t>Error!</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>الصفحة السابقة</t>
+  </si>
+  <si>
+    <t>الاختصاصات</t>
+  </si>
+  <si>
+    <t>اختصاص</t>
+  </si>
+  <si>
+    <t>اختصاص (بالانكليزية)</t>
+  </si>
+  <si>
+    <t>اختصاص (بالعربي)</t>
+  </si>
+  <si>
+    <t>إضافة اختصاص</t>
+  </si>
+  <si>
+    <t>تعديل اختصاص</t>
+  </si>
+  <si>
+    <t>أنواع الحجوزات</t>
+  </si>
+  <si>
+    <t>نوع الحجز</t>
+  </si>
+  <si>
+    <t>إضافة نوع حجز</t>
+  </si>
+  <si>
+    <t>تعديل نوع حجز</t>
+  </si>
+  <si>
+    <t>نوع الحجز (بالانكليزية)</t>
+  </si>
+  <si>
+    <t>نوع الحجز (بالعربي)</t>
+  </si>
+  <si>
+    <t>مخطط الغرف</t>
+  </si>
+  <si>
+    <t>الطابق</t>
+  </si>
+  <si>
+    <t>الوحدة</t>
+  </si>
+  <si>
+    <t>مريض داخلي</t>
+  </si>
+  <si>
+    <t>سعة الغرفة</t>
+  </si>
+  <si>
+    <t>الوحدات</t>
+  </si>
+  <si>
+    <t>نوع الوحدة</t>
+  </si>
+  <si>
+    <t>إذافة وحدة</t>
+  </si>
+  <si>
+    <t>تعديل وحدة</t>
+  </si>
+  <si>
+    <t>اسم الوحدة (بالانكليزية)</t>
+  </si>
+  <si>
+    <t>اسم الوحدة (بالعربية)</t>
+  </si>
+  <si>
+    <t>غير محدد</t>
+  </si>
+  <si>
+    <t>مخبر الدم</t>
+  </si>
+  <si>
+    <t>مخبر الصور الشعاعية</t>
+  </si>
+  <si>
+    <t>مخبر</t>
+  </si>
+  <si>
+    <t>رقم تعريف</t>
+  </si>
+  <si>
+    <t>العمر</t>
+  </si>
+  <si>
+    <t>رقم الاتصال</t>
+  </si>
+  <si>
+    <t>نوع رقم التعريف</t>
+  </si>
+  <si>
+    <t>حفظ كمريض داخلي</t>
+  </si>
+  <si>
+    <t>إضافة مريض داخلي</t>
+  </si>
+  <si>
+    <t>لقب</t>
+  </si>
+  <si>
+    <t>التفاصيل</t>
+  </si>
+  <si>
+    <t>التعليم</t>
+  </si>
+  <si>
+    <t>شهادات الطبيب</t>
+  </si>
+  <si>
+    <t>تعديل جدول</t>
+  </si>
+  <si>
+    <t>سنة الانتهاء</t>
+  </si>
+  <si>
+    <t>سنة البدء</t>
+  </si>
+  <si>
+    <t>خبرة الطبيب</t>
+  </si>
+  <si>
+    <t>من سنة</t>
+  </si>
+  <si>
+    <t>حتى سنة</t>
+  </si>
+  <si>
+    <t>بيانات الخبرة</t>
+  </si>
+  <si>
+    <t>بيانات الجدول</t>
+  </si>
+  <si>
+    <t>بيانات الشهادات</t>
+  </si>
+  <si>
+    <t>سبب الحجز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حجز </t>
+  </si>
+  <si>
+    <t>اسم المريض الأول</t>
+  </si>
+  <si>
+    <t>تفاصيل الحجز</t>
+  </si>
+  <si>
+    <t>تاريخ التسجيل</t>
+  </si>
+  <si>
+    <t>مستخدم التسجيل</t>
+  </si>
+  <si>
+    <t>تاريخ التأكيد</t>
+  </si>
+  <si>
+    <t>تاريخ الإغلاق</t>
+  </si>
+  <si>
+    <t>تاريخ الإلغاء</t>
+  </si>
+  <si>
+    <t>يوجد متطلبات مالية</t>
+  </si>
+  <si>
+    <t>متطلبات مالية</t>
+  </si>
+  <si>
+    <t>يوجد متطلبات فحوصات</t>
+  </si>
+  <si>
+    <t>متطلبات فحوصات</t>
+  </si>
+  <si>
+    <t>يوجد متطبات صور شعاعية</t>
+  </si>
+  <si>
+    <t>متطلبات صور شعاعية</t>
+  </si>
+  <si>
+    <t>متعلق</t>
+  </si>
+  <si>
+    <t>منتهي الصلاحية</t>
+  </si>
+  <si>
+    <t>مؤكد</t>
+  </si>
+  <si>
+    <t>ملغي</t>
+  </si>
+  <si>
+    <t>مغلق</t>
+  </si>
+  <si>
+    <t>حفظ وحجز غرف</t>
+  </si>
+  <si>
+    <t>مرضى داخليين</t>
+  </si>
+  <si>
+    <t>مرضى خارجيين</t>
+  </si>
+  <si>
+    <t>مريض خارجي</t>
+  </si>
+  <si>
+    <t>تعديل مريض داخلي</t>
+  </si>
+  <si>
+    <t>جواز سفر</t>
+  </si>
+  <si>
+    <t>إقامة</t>
+  </si>
+  <si>
+    <t>أخرى</t>
+  </si>
+  <si>
+    <t>رقم الهاتف</t>
+  </si>
+  <si>
+    <t>قبول</t>
+  </si>
+  <si>
+    <t>تخريج</t>
+  </si>
+  <si>
+    <t>المدة المتوقعة</t>
+  </si>
+  <si>
+    <t>تاريخ التخريج المتوقع</t>
+  </si>
+  <si>
+    <t>تقرير الشرطة</t>
+  </si>
+  <si>
+    <t>طوارئ</t>
+  </si>
+  <si>
+    <t>حادث</t>
+  </si>
+  <si>
+    <t>قائمة المرضى الداخليين</t>
+  </si>
+  <si>
+    <t>تعديل بيانات المريض</t>
+  </si>
+  <si>
+    <t>تعديل البيانات</t>
+  </si>
+  <si>
+    <t>الملف الطبي</t>
+  </si>
+  <si>
+    <t>عودة للصحة الرئيسية</t>
+  </si>
+  <si>
+    <t>لم يخرج</t>
+  </si>
+  <si>
+    <t>تحسن</t>
+  </si>
+  <si>
+    <t>بحالة جيدة</t>
+  </si>
+  <si>
+    <t>مريض</t>
+  </si>
+  <si>
+    <t>وفاة</t>
+  </si>
+  <si>
+    <t>وقت القبول</t>
+  </si>
+  <si>
+    <t>نوع التخريج</t>
+  </si>
+  <si>
+    <t>متخرج</t>
+  </si>
+  <si>
+    <t>مشغولة</t>
+  </si>
+  <si>
+    <t>محجوزة</t>
+  </si>
+  <si>
+    <t>حجز غرف</t>
+  </si>
+  <si>
+    <t>خطأ!</t>
+  </si>
+  <si>
+    <t>المرض</t>
+  </si>
+  <si>
+    <t>تحديث</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>الموبايل</t>
+  </si>
+  <si>
+    <t>العنوان</t>
   </si>
 </sst>
 </file>
@@ -2030,10 +2687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E4CD8-DC49-4C55-8515-46DB0D464638}">
-  <dimension ref="A1:C282"/>
+  <dimension ref="A1:C432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281:C282"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="C424" sqref="C424:C432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,7 +5418,7 @@
         <v>417</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C282" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
+        <f t="shared" ref="C195:C432" si="3">T(_xlfn.CONCAT("msgid ", CHAR(34), ,A195,CHAR(34), CHAR(10), "msgstr ",CHAR(34), B195, CHAR(34), CHAR(10), CHAR(10)))</f>
         <v xml:space="preserve">msgid "Leaves"
 msgstr "الإجازات"
 </v>
@@ -5988,6 +6645,2106 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">msgid "English"
 msgstr "انجليزية"
+</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>555</v>
+      </c>
+      <c r="B283" t="s">
+        <v>661</v>
+      </c>
+      <c r="C283" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Return"
+msgstr "الصفحة السابقة"
+</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>556</v>
+      </c>
+      <c r="B284" t="s">
+        <v>662</v>
+      </c>
+      <c r="C284" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Specialities"
+msgstr "الاختصاصات"
+</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>48</v>
+      </c>
+      <c r="B285" t="s">
+        <v>663</v>
+      </c>
+      <c r="C285" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Speciality"
+msgstr "اختصاص"
+</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>557</v>
+      </c>
+      <c r="B286" t="s">
+        <v>664</v>
+      </c>
+      <c r="C286" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Speciality (English)"
+msgstr "اختصاص (بالانكليزية)"
+</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>558</v>
+      </c>
+      <c r="B287" t="s">
+        <v>665</v>
+      </c>
+      <c r="C287" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Speciality (Arabic)"
+msgstr "اختصاص (بالعربي)"
+</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>559</v>
+      </c>
+      <c r="B288" t="s">
+        <v>666</v>
+      </c>
+      <c r="C288" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Create Speciality"
+msgstr "إضافة اختصاص"
+</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>560</v>
+      </c>
+      <c r="B289" t="s">
+        <v>667</v>
+      </c>
+      <c r="C289" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Speciality"
+msgstr "تعديل اختصاص"
+</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>561</v>
+      </c>
+      <c r="B290" t="s">
+        <v>668</v>
+      </c>
+      <c r="C290" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Booking Reason Types"
+msgstr "أنواع الحجوزات"
+</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>562</v>
+      </c>
+      <c r="B291" t="s">
+        <v>669</v>
+      </c>
+      <c r="C291" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Booking Reason Type"
+msgstr "نوع الحجز"
+</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>563</v>
+      </c>
+      <c r="B292" t="s">
+        <v>670</v>
+      </c>
+      <c r="C292" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Create Booking Reason Type"
+msgstr "إضافة نوع حجز"
+</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>564</v>
+      </c>
+      <c r="B293" t="s">
+        <v>671</v>
+      </c>
+      <c r="C293" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Booking Reason Type"
+msgstr "تعديل نوع حجز"
+</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>565</v>
+      </c>
+      <c r="B294" t="s">
+        <v>672</v>
+      </c>
+      <c r="C294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Reason Type (English)"
+msgstr "نوع الحجز (بالانكليزية)"
+</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>566</v>
+      </c>
+      <c r="B295" t="s">
+        <v>673</v>
+      </c>
+      <c r="C295" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Reason Type (Arabic)"
+msgstr "نوع الحجز (بالعربي)"
+</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>567</v>
+      </c>
+      <c r="B296" t="s">
+        <v>674</v>
+      </c>
+      <c r="C296" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Room Chart"
+msgstr "مخطط الغرف"
+</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>568</v>
+      </c>
+      <c r="B297" t="s">
+        <v>675</v>
+      </c>
+      <c r="C297" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Floor"
+msgstr "الطابق"
+</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>552</v>
+      </c>
+      <c r="B298" t="s">
+        <v>676</v>
+      </c>
+      <c r="C298" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Unit"
+msgstr "الوحدة"
+</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>81</v>
+      </c>
+      <c r="B299" t="s">
+        <v>247</v>
+      </c>
+      <c r="C299" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Room No."
+msgstr "رقم الغرفة"
+</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>549</v>
+      </c>
+      <c r="B300" t="s">
+        <v>677</v>
+      </c>
+      <c r="C300" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Inpatient"
+msgstr "مريض داخلي"
+</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>569</v>
+      </c>
+      <c r="B301" t="s">
+        <v>678</v>
+      </c>
+      <c r="C301" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Capacity"
+msgstr "سعة الغرفة"
+</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>553</v>
+      </c>
+      <c r="B302" t="s">
+        <v>679</v>
+      </c>
+      <c r="C302" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Units"
+msgstr "الوحدات"
+</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>554</v>
+      </c>
+      <c r="B303" t="s">
+        <v>680</v>
+      </c>
+      <c r="C303" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Unit Type"
+msgstr "نوع الوحدة"
+</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>570</v>
+      </c>
+      <c r="B304" t="s">
+        <v>681</v>
+      </c>
+      <c r="C304" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Create Unit"
+msgstr "إذافة وحدة"
+</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>571</v>
+      </c>
+      <c r="B305" t="s">
+        <v>682</v>
+      </c>
+      <c r="C305" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Unit"
+msgstr "تعديل وحدة"
+</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>572</v>
+      </c>
+      <c r="B306" t="s">
+        <v>683</v>
+      </c>
+      <c r="C306" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Unit Name (English)"
+msgstr "اسم الوحدة (بالانكليزية)"
+</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>573</v>
+      </c>
+      <c r="B307" t="s">
+        <v>684</v>
+      </c>
+      <c r="C307" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Unit Name (Arabic)"
+msgstr "اسم الوحدة (بالعربية)"
+</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>574</v>
+      </c>
+      <c r="B308" t="s">
+        <v>685</v>
+      </c>
+      <c r="C308" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Unspecified"
+msgstr "غير محدد"
+</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>575</v>
+      </c>
+      <c r="B309" t="s">
+        <v>686</v>
+      </c>
+      <c r="C309" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Test Laboratory"
+msgstr "مخبر الدم"
+</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>576</v>
+      </c>
+      <c r="B310" t="s">
+        <v>687</v>
+      </c>
+      <c r="C310" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Radiology Laboratory"
+msgstr "مخبر الصور الشعاعية"
+</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>577</v>
+      </c>
+      <c r="B311" t="s">
+        <v>688</v>
+      </c>
+      <c r="C311" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Laboratory"
+msgstr "مخبر"
+</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>578</v>
+      </c>
+      <c r="B312" t="s">
+        <v>689</v>
+      </c>
+      <c r="C312" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Identity"
+msgstr "رقم تعريف"
+</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>579</v>
+      </c>
+      <c r="B313" t="s">
+        <v>214</v>
+      </c>
+      <c r="C313" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "National"
+msgstr "الرقم الوطني"
+</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>580</v>
+      </c>
+      <c r="B314" t="s">
+        <v>198</v>
+      </c>
+      <c r="C314" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Identity No."
+msgstr "رقم التعريف"
+</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>581</v>
+      </c>
+      <c r="B315" t="s">
+        <v>690</v>
+      </c>
+      <c r="C315" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Age"
+msgstr "العمر"
+</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>582</v>
+      </c>
+      <c r="B316" t="s">
+        <v>691</v>
+      </c>
+      <c r="C316" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Contact"
+msgstr "رقم الاتصال"
+</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>583</v>
+      </c>
+      <c r="B317" t="s">
+        <v>692</v>
+      </c>
+      <c r="C317" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "ID. Type"
+msgstr "نوع رقم التعريف"
+</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>584</v>
+      </c>
+      <c r="B318" t="s">
+        <v>166</v>
+      </c>
+      <c r="C318" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Birthdate"
+msgstr "تاريخ الميلاد"
+</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>105</v>
+      </c>
+      <c r="B319" t="s">
+        <v>207</v>
+      </c>
+      <c r="C319" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Married"
+msgstr "متزوج"
+</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>585</v>
+      </c>
+      <c r="B320" t="s">
+        <v>693</v>
+      </c>
+      <c r="C320" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Save To Inpatient"
+msgstr "حفظ كمريض داخلي"
+</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>586</v>
+      </c>
+      <c r="B321" t="s">
+        <v>342</v>
+      </c>
+      <c r="C321" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Create Patient"
+msgstr "إضافة مريض"
+</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>454</v>
+      </c>
+      <c r="B322" t="s">
+        <v>471</v>
+      </c>
+      <c r="C322" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Patient"
+msgstr "تعديل مريض"
+</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>587</v>
+      </c>
+      <c r="B323" t="s">
+        <v>694</v>
+      </c>
+      <c r="C323" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Create Inpatient"
+msgstr "إضافة مريض داخلي"
+</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>588</v>
+      </c>
+      <c r="B324" t="s">
+        <v>695</v>
+      </c>
+      <c r="C324" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Title"
+msgstr "لقب"
+</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>589</v>
+      </c>
+      <c r="B325" t="s">
+        <v>343</v>
+      </c>
+      <c r="C325" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Create Doctor"
+msgstr "إضافة طبيب"
+</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>455</v>
+      </c>
+      <c r="B326" t="s">
+        <v>472</v>
+      </c>
+      <c r="C326" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Doctor"
+msgstr "تعديل طبيب"
+</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>590</v>
+      </c>
+      <c r="B327" t="s">
+        <v>260</v>
+      </c>
+      <c r="C327" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "UserId"
+msgstr "اسم المستخدم"
+</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>591</v>
+      </c>
+      <c r="B328" t="s">
+        <v>353</v>
+      </c>
+      <c r="C328" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Create User"
+msgstr "إضافة مستخدم"
+</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>521</v>
+      </c>
+      <c r="B329" t="s">
+        <v>696</v>
+      </c>
+      <c r="C329" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Details"
+msgstr "التفاصيل"
+</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>592</v>
+      </c>
+      <c r="B330" t="s">
+        <v>413</v>
+      </c>
+      <c r="C330" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Schedule"
+msgstr "جدول الطبيب"
+</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>593</v>
+      </c>
+      <c r="B331" t="s">
+        <v>697</v>
+      </c>
+      <c r="C331" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Education"
+msgstr "التعليم"
+</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>526</v>
+      </c>
+      <c r="B332" t="s">
+        <v>536</v>
+      </c>
+      <c r="C332" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Experience"
+msgstr "الخبرة"
+</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>520</v>
+      </c>
+      <c r="B333" t="s">
+        <v>530</v>
+      </c>
+      <c r="C333" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Doctor Details"
+msgstr "بيانات الطبيب"
+</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>368</v>
+      </c>
+      <c r="B334" t="s">
+        <v>413</v>
+      </c>
+      <c r="C334" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Doctor Schedule"
+msgstr "جدول الطبيب"
+</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>594</v>
+      </c>
+      <c r="B335" t="s">
+        <v>414</v>
+      </c>
+      <c r="C335" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Create Doctor Schedule"
+msgstr "إضافة جدول"
+</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>595</v>
+      </c>
+      <c r="B336" t="s">
+        <v>699</v>
+      </c>
+      <c r="C336" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Doctor Schedule"
+msgstr "تعديل جدول"
+</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>596</v>
+      </c>
+      <c r="B337" t="s">
+        <v>698</v>
+      </c>
+      <c r="C337" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Doctor Education"
+msgstr "شهادات الطبيب"
+</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>597</v>
+      </c>
+      <c r="B338" t="s">
+        <v>350</v>
+      </c>
+      <c r="C338" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Create Doctor Education"
+msgstr "إضافة شهادة"
+</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>598</v>
+      </c>
+      <c r="B339" t="s">
+        <v>479</v>
+      </c>
+      <c r="C339" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Doctor Education"
+msgstr "تعديل شهادة"
+</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>599</v>
+      </c>
+      <c r="B340" t="s">
+        <v>701</v>
+      </c>
+      <c r="C340" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Starting Year"
+msgstr "سنة البدء"
+</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>600</v>
+      </c>
+      <c r="B341" t="s">
+        <v>700</v>
+      </c>
+      <c r="C341" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Completion Year"
+msgstr "سنة الانتهاء"
+</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>601</v>
+      </c>
+      <c r="B342" t="s">
+        <v>702</v>
+      </c>
+      <c r="C342" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Doctor Experience"
+msgstr "خبرة الطبيب"
+</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>602</v>
+      </c>
+      <c r="B343" t="s">
+        <v>703</v>
+      </c>
+      <c r="C343" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "From Year"
+msgstr "من سنة"
+</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>603</v>
+      </c>
+      <c r="B344" t="s">
+        <v>704</v>
+      </c>
+      <c r="C344" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "To Year"
+msgstr "حتى سنة"
+</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>604</v>
+      </c>
+      <c r="B345" t="s">
+        <v>351</v>
+      </c>
+      <c r="C345" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Create Doctor Experience"
+msgstr "إضافة خبرة"
+</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>605</v>
+      </c>
+      <c r="B346" t="s">
+        <v>480</v>
+      </c>
+      <c r="C346" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Doctor Experience"
+msgstr "تعديل خبرة"
+</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>606</v>
+      </c>
+      <c r="B347" t="s">
+        <v>705</v>
+      </c>
+      <c r="C347" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Experience Details"
+msgstr "بيانات الخبرة"
+</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>607</v>
+      </c>
+      <c r="B348" t="s">
+        <v>706</v>
+      </c>
+      <c r="C348" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Schedule Details"
+msgstr "بيانات الجدول"
+</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>287</v>
+      </c>
+      <c r="B349" t="s">
+        <v>707</v>
+      </c>
+      <c r="C349" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Education Details"
+msgstr "بيانات الشهادات"
+</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>608</v>
+      </c>
+      <c r="B350" t="s">
+        <v>335</v>
+      </c>
+      <c r="C350" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Bookings"
+msgstr "الحجوزات"
+</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>101</v>
+      </c>
+      <c r="B351" t="s">
+        <v>225</v>
+      </c>
+      <c r="C351" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Patient Name"
+msgstr "اسم المريض"
+</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>609</v>
+      </c>
+      <c r="B352" t="s">
+        <v>708</v>
+      </c>
+      <c r="C352" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Reason"
+msgstr "سبب الحجز"
+</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>610</v>
+      </c>
+      <c r="B353" t="s">
+        <v>352</v>
+      </c>
+      <c r="C353" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Create Booking"
+msgstr "إضافة حجز"
+</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>611</v>
+      </c>
+      <c r="B354" t="s">
+        <v>481</v>
+      </c>
+      <c r="C354" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Booking"
+msgstr "تعديل حجز"
+</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>612</v>
+      </c>
+      <c r="B355" t="s">
+        <v>709</v>
+      </c>
+      <c r="C355" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Booking"
+msgstr "حجز "
+</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>613</v>
+      </c>
+      <c r="B356" t="s">
+        <v>710</v>
+      </c>
+      <c r="C356" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Patient First Name"
+msgstr "اسم المريض الأول"
+</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>614</v>
+      </c>
+      <c r="B357" t="s">
+        <v>204</v>
+      </c>
+      <c r="C357" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Patient Last Name"
+msgstr "اسم العائلة"
+</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>615</v>
+      </c>
+      <c r="B358" t="s">
+        <v>711</v>
+      </c>
+      <c r="C358" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Reason Details"
+msgstr "تفاصيل الحجز"
+</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>89</v>
+      </c>
+      <c r="B359" t="s">
+        <v>712</v>
+      </c>
+      <c r="C359" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Created On"
+msgstr "تاريخ التسجيل"
+</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>616</v>
+      </c>
+      <c r="B360" t="s">
+        <v>713</v>
+      </c>
+      <c r="C360" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Created By"
+msgstr "مستخدم التسجيل"
+</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>617</v>
+      </c>
+      <c r="B361" t="s">
+        <v>714</v>
+      </c>
+      <c r="C361" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Confirmed On"
+msgstr "تاريخ التأكيد"
+</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>618</v>
+      </c>
+      <c r="B362" t="s">
+        <v>715</v>
+      </c>
+      <c r="C362" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Closed On"
+msgstr "تاريخ الإغلاق"
+</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>619</v>
+      </c>
+      <c r="B363" t="s">
+        <v>716</v>
+      </c>
+      <c r="C363" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Cancelled On"
+msgstr "تاريخ الإلغاء"
+</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>620</v>
+      </c>
+      <c r="B364" t="s">
+        <v>717</v>
+      </c>
+      <c r="C364" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Has Payment Requirements"
+msgstr "يوجد متطلبات مالية"
+</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>621</v>
+      </c>
+      <c r="B365" t="s">
+        <v>718</v>
+      </c>
+      <c r="C365" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Payment Requirements"
+msgstr "متطلبات مالية"
+</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>622</v>
+      </c>
+      <c r="B366" t="s">
+        <v>719</v>
+      </c>
+      <c r="C366" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Has Test Requirements"
+msgstr "يوجد متطلبات فحوصات"
+</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>623</v>
+      </c>
+      <c r="B367" t="s">
+        <v>720</v>
+      </c>
+      <c r="C367" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Test Requirements"
+msgstr "متطلبات فحوصات"
+</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>624</v>
+      </c>
+      <c r="B368" t="s">
+        <v>721</v>
+      </c>
+      <c r="C368" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Has Radiology Requirements"
+msgstr "يوجد متطبات صور شعاعية"
+</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>625</v>
+      </c>
+      <c r="B369" t="s">
+        <v>722</v>
+      </c>
+      <c r="C369" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Radiology Requirements"
+msgstr "متطلبات صور شعاعية"
+</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>85</v>
+      </c>
+      <c r="B370" t="s">
+        <v>723</v>
+      </c>
+      <c r="C370" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Pending"
+msgstr "متعلق"
+</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>626</v>
+      </c>
+      <c r="B371" t="s">
+        <v>724</v>
+      </c>
+      <c r="C371" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Expired"
+msgstr "منتهي الصلاحية"
+</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>627</v>
+      </c>
+      <c r="B372" t="s">
+        <v>725</v>
+      </c>
+      <c r="C372" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Confirmed"
+msgstr "مؤكد"
+</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>127</v>
+      </c>
+      <c r="B373" t="s">
+        <v>726</v>
+      </c>
+      <c r="C373" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Cancelled"
+msgstr "ملغي"
+</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>628</v>
+      </c>
+      <c r="B374" t="s">
+        <v>727</v>
+      </c>
+      <c r="C374" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Closed"
+msgstr "مغلق"
+</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>629</v>
+      </c>
+      <c r="B375" t="s">
+        <v>728</v>
+      </c>
+      <c r="C375" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Save And Book Rooms"
+msgstr "حفظ وحجز غرف"
+</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>551</v>
+      </c>
+      <c r="B376" t="s">
+        <v>729</v>
+      </c>
+      <c r="C376" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Inpatients"
+msgstr "مرضى داخليين"
+</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>549</v>
+      </c>
+      <c r="B377" t="s">
+        <v>677</v>
+      </c>
+      <c r="C377" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Inpatient"
+msgstr "مريض داخلي"
+</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>386</v>
+      </c>
+      <c r="B378" t="s">
+        <v>730</v>
+      </c>
+      <c r="C378" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Outpatients"
+msgstr "مرضى خارجيين"
+</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>550</v>
+      </c>
+      <c r="B379" t="s">
+        <v>731</v>
+      </c>
+      <c r="C379" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Outpatient"
+msgstr "مريض خارجي"
+</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>578</v>
+      </c>
+      <c r="B380" t="s">
+        <v>689</v>
+      </c>
+      <c r="C380" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Identity"
+msgstr "رقم تعريف"
+</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>587</v>
+      </c>
+      <c r="B381" t="s">
+        <v>694</v>
+      </c>
+      <c r="C381" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Create Inpatient"
+msgstr "إضافة مريض داخلي"
+</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>630</v>
+      </c>
+      <c r="B382" t="s">
+        <v>732</v>
+      </c>
+      <c r="C382" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Inpatient"
+msgstr "تعديل مريض داخلي"
+</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>631</v>
+      </c>
+      <c r="B383" t="s">
+        <v>733</v>
+      </c>
+      <c r="C383" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Passport"
+msgstr "جواز سفر"
+</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>632</v>
+      </c>
+      <c r="B384" t="s">
+        <v>734</v>
+      </c>
+      <c r="C384" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Residence"
+msgstr "إقامة"
+</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>633</v>
+      </c>
+      <c r="B385" t="s">
+        <v>735</v>
+      </c>
+      <c r="C385" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Other"
+msgstr "أخرى"
+</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>591</v>
+      </c>
+      <c r="B386" t="s">
+        <v>353</v>
+      </c>
+      <c r="C386" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Create User"
+msgstr "إضافة مستخدم"
+</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>465</v>
+      </c>
+      <c r="B387" t="s">
+        <v>482</v>
+      </c>
+      <c r="C387" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit User"
+msgstr "تعديل مستخدم"
+</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>271</v>
+      </c>
+      <c r="B388" t="s">
+        <v>297</v>
+      </c>
+      <c r="C388" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Users"
+msgstr "المستخدمين"
+</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>634</v>
+      </c>
+      <c r="B389" t="s">
+        <v>260</v>
+      </c>
+      <c r="C389" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "UserName"
+msgstr "اسم المستخدم"
+</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>635</v>
+      </c>
+      <c r="B390" t="s">
+        <v>736</v>
+      </c>
+      <c r="C390" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "PhoneNumber"
+msgstr "رقم الهاتف"
+</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>112</v>
+      </c>
+      <c r="B391" t="s">
+        <v>217</v>
+      </c>
+      <c r="C391" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Occupation"
+msgstr "المهنة"
+</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>64</v>
+      </c>
+      <c r="B392" t="s">
+        <v>160</v>
+      </c>
+      <c r="C392" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Company"
+msgstr "الشركة"
+</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>636</v>
+      </c>
+      <c r="B393" t="s">
+        <v>737</v>
+      </c>
+      <c r="C393" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Admit"
+msgstr "قبول"
+</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>401</v>
+      </c>
+      <c r="B394" t="s">
+        <v>738</v>
+      </c>
+      <c r="C394" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Discharge"
+msgstr "تخريج"
+</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>637</v>
+      </c>
+      <c r="B395" t="s">
+        <v>739</v>
+      </c>
+      <c r="C395" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Est. Days"
+msgstr "المدة المتوقعة"
+</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>638</v>
+      </c>
+      <c r="B396" t="s">
+        <v>740</v>
+      </c>
+      <c r="C396" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Est. Discharge Date"
+msgstr "تاريخ التخريج المتوقع"
+</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>639</v>
+      </c>
+      <c r="B397" t="s">
+        <v>741</v>
+      </c>
+      <c r="C397" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Police Ref."
+msgstr "تقرير الشرطة"
+</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>19</v>
+      </c>
+      <c r="B398" t="s">
+        <v>159</v>
+      </c>
+      <c r="C398" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Companion"
+msgstr "مرافق"
+</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>640</v>
+      </c>
+      <c r="B399" t="s">
+        <v>742</v>
+      </c>
+      <c r="C399" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Emergency"
+msgstr "طوارئ"
+</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>641</v>
+      </c>
+      <c r="B400" t="s">
+        <v>743</v>
+      </c>
+      <c r="C400" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Accident"
+msgstr "حادث"
+</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>642</v>
+      </c>
+      <c r="B401" t="s">
+        <v>744</v>
+      </c>
+      <c r="C401" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Inpatient Menu"
+msgstr "قائمة المرضى الداخليين"
+</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>643</v>
+      </c>
+      <c r="B402" t="s">
+        <v>745</v>
+      </c>
+      <c r="C402" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Patient Info"
+msgstr "تعديل بيانات المريض"
+</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>644</v>
+      </c>
+      <c r="B403" t="s">
+        <v>746</v>
+      </c>
+      <c r="C403" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Edit Details"
+msgstr "تعديل البيانات"
+</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>645</v>
+      </c>
+      <c r="B404" t="s">
+        <v>305</v>
+      </c>
+      <c r="C404" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Bills"
+msgstr "الفواتير"
+</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>646</v>
+      </c>
+      <c r="B405" t="s">
+        <v>747</v>
+      </c>
+      <c r="C405" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Medical"
+msgstr "الملف الطبي"
+</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>647</v>
+      </c>
+      <c r="B406" t="s">
+        <v>748</v>
+      </c>
+      <c r="C406" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Back to Home"
+msgstr "عودة للصحة الرئيسية"
+</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>648</v>
+      </c>
+      <c r="B407" t="s">
+        <v>749</v>
+      </c>
+      <c r="C407" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Not Discharged"
+msgstr "لم يخرج"
+</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>649</v>
+      </c>
+      <c r="B408" t="s">
+        <v>751</v>
+      </c>
+      <c r="C408" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Well"
+msgstr "بحالة جيدة"
+</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>650</v>
+      </c>
+      <c r="B409" t="s">
+        <v>750</v>
+      </c>
+      <c r="C409" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Improvement"
+msgstr "تحسن"
+</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>651</v>
+      </c>
+      <c r="B410" t="s">
+        <v>752</v>
+      </c>
+      <c r="C410" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Ill"
+msgstr "مريض"
+</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>652</v>
+      </c>
+      <c r="B411" t="s">
+        <v>753</v>
+      </c>
+      <c r="C411" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Death"
+msgstr "وفاة"
+</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>23</v>
+      </c>
+      <c r="B412" t="s">
+        <v>754</v>
+      </c>
+      <c r="C412" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Admission Time"
+msgstr "وقت القبول"
+</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>42</v>
+      </c>
+      <c r="B413" t="s">
+        <v>755</v>
+      </c>
+      <c r="C413" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Discharge Type"
+msgstr "نوع التخريج"
+</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>653</v>
+      </c>
+      <c r="B414" t="s">
+        <v>149</v>
+      </c>
+      <c r="C414" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Admitted"
+msgstr "مقبول"
+</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>654</v>
+      </c>
+      <c r="B415" t="s">
+        <v>756</v>
+      </c>
+      <c r="C415" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Discharged"
+msgstr "متخرج"
+</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>132</v>
+      </c>
+      <c r="B416" t="s">
+        <v>150</v>
+      </c>
+      <c r="C416" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Available"
+msgstr "متاح"
+</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>655</v>
+      </c>
+      <c r="B417" t="s">
+        <v>757</v>
+      </c>
+      <c r="C417" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Rederved"
+msgstr "مشغولة"
+</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>126</v>
+      </c>
+      <c r="B418" t="s">
+        <v>758</v>
+      </c>
+      <c r="C418" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Booked"
+msgstr "محجوزة"
+</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>656</v>
+      </c>
+      <c r="B419" t="s">
+        <v>759</v>
+      </c>
+      <c r="C419" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Booking Rooms"
+msgstr "حجز غرف"
+</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>657</v>
+      </c>
+      <c r="B420" t="s">
+        <v>760</v>
+      </c>
+      <c r="C420" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Error!"
+msgstr "خطأ!"
+</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>658</v>
+      </c>
+      <c r="B421" t="s">
+        <v>761</v>
+      </c>
+      <c r="C421" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "patient"
+msgstr "المرض"
+</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>659</v>
+      </c>
+      <c r="B422" t="s">
+        <v>175</v>
+      </c>
+      <c r="C422" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "doctor"
+msgstr "الطبيب"
+</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>660</v>
+      </c>
+      <c r="B423" t="s">
+        <v>762</v>
+      </c>
+      <c r="C423" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Refresh"
+msgstr "تحديث"
+</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>763</v>
+      </c>
+      <c r="B424" t="s">
+        <v>192</v>
+      </c>
+      <c r="C424" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Name"
+msgstr "الاسم"
+</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>32</v>
+      </c>
+      <c r="B425" t="s">
+        <v>229</v>
+      </c>
+      <c r="C425" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Phone"
+msgstr "الهاتف"
+</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>33</v>
+      </c>
+      <c r="B426" t="s">
+        <v>765</v>
+      </c>
+      <c r="C426" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Mobile"
+msgstr "الموبايل"
+</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>50</v>
+      </c>
+      <c r="B427" t="s">
+        <v>766</v>
+      </c>
+      <c r="C427" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Address"
+msgstr "العنوان"
+</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>47</v>
+      </c>
+      <c r="B428" t="s">
+        <v>196</v>
+      </c>
+      <c r="C428" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Gender"
+msgstr "الجنس"
+</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>574</v>
+      </c>
+      <c r="B429" t="s">
+        <v>685</v>
+      </c>
+      <c r="C429" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Unspecified"
+msgstr "غير محدد"
+</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>764</v>
+      </c>
+      <c r="B430" t="s">
+        <v>136</v>
+      </c>
+      <c r="C430" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Actions"
+msgstr "العمليات"
+</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>86</v>
+      </c>
+      <c r="B431" t="s">
+        <v>206</v>
+      </c>
+      <c r="C431" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Male"
+msgstr "ذكر"
+</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>87</v>
+      </c>
+      <c r="B432" t="s">
+        <v>190</v>
+      </c>
+      <c r="C432" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">msgid "Female"
+msgstr "أنثى"
 </v>
       </c>
     </row>
